--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H2">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I2">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J2">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N2">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P2">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q2">
-        <v>0.01785019692711111</v>
+        <v>2.776951864359778</v>
       </c>
       <c r="R2">
-        <v>0.160651772344</v>
+        <v>24.992566779238</v>
       </c>
       <c r="S2">
-        <v>1.54442630113642E-06</v>
+        <v>0.0002365538446211172</v>
       </c>
       <c r="T2">
-        <v>1.54442630113642E-06</v>
+        <v>0.0002365538446211173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H3">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I3">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J3">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N3">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P3">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q3">
-        <v>27.64823917576045</v>
+        <v>242.5613316364127</v>
       </c>
       <c r="R3">
-        <v>248.8341525818441</v>
+        <v>2183.051984727714</v>
       </c>
       <c r="S3">
-        <v>0.002392167881257402</v>
+        <v>0.02066251716186656</v>
       </c>
       <c r="T3">
-        <v>0.002392167881257402</v>
+        <v>0.02066251716186656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H4">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I4">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J4">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N4">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O4">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P4">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q4">
-        <v>4.964541284345112</v>
+        <v>28.72388223119867</v>
       </c>
       <c r="R4">
-        <v>44.680871559106</v>
+        <v>258.514940080788</v>
       </c>
       <c r="S4">
-        <v>0.0004295396943758574</v>
+        <v>0.002446835633501612</v>
       </c>
       <c r="T4">
-        <v>0.0004295396943758573</v>
+        <v>0.002446835633501612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4541726666666667</v>
+        <v>2.940931333333333</v>
       </c>
       <c r="H5">
-        <v>1.362518</v>
+        <v>8.822794</v>
       </c>
       <c r="I5">
-        <v>0.005326894406580251</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="J5">
-        <v>0.00532689440658025</v>
+        <v>0.03454096854573427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N5">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P5">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q5">
-        <v>28.93664134385067</v>
+        <v>131.421022053456</v>
       </c>
       <c r="R5">
-        <v>260.4297720946561</v>
+        <v>1182.789198481104</v>
       </c>
       <c r="S5">
-        <v>0.002503642404645855</v>
+        <v>0.01119506190574498</v>
       </c>
       <c r="T5">
-        <v>0.002503642404645854</v>
+        <v>0.01119506190574498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>229.479935</v>
       </c>
       <c r="I6">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J6">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N6">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P6">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q6">
-        <v>3.006391130664444</v>
+        <v>72.22822309252723</v>
       </c>
       <c r="R6">
-        <v>27.05752017598</v>
+        <v>650.0540078327451</v>
       </c>
       <c r="S6">
-        <v>0.0002601175523531257</v>
+        <v>0.006152740377668806</v>
       </c>
       <c r="T6">
-        <v>0.0002601175523531257</v>
+        <v>0.006152740377668808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>229.479935</v>
       </c>
       <c r="I7">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J7">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N7">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P7">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q7">
-        <v>4656.610869667748</v>
+        <v>6308.994476969248</v>
       </c>
       <c r="R7">
-        <v>41909.49782700973</v>
+        <v>56780.95029272324</v>
       </c>
       <c r="S7">
-        <v>0.4028970845890009</v>
+        <v>0.5374298771161973</v>
       </c>
       <c r="T7">
-        <v>0.4028970845890008</v>
+        <v>0.5374298771161974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>229.479935</v>
       </c>
       <c r="I8">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J8">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N8">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O8">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P8">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q8">
-        <v>836.1449986248496</v>
+        <v>747.1051264897634</v>
       </c>
       <c r="R8">
-        <v>7525.304987623646</v>
+        <v>6723.94613840787</v>
       </c>
       <c r="S8">
-        <v>0.0723445423438748</v>
+        <v>0.06364193498472635</v>
       </c>
       <c r="T8">
-        <v>0.07234454234387479</v>
+        <v>0.06364193498472637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>229.479935</v>
       </c>
       <c r="I9">
-        <v>0.8971737490248932</v>
+        <v>0.8984069237831173</v>
       </c>
       <c r="J9">
-        <v>0.8971737490248931</v>
+        <v>0.8984069237831174</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N9">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P9">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q9">
-        <v>4873.607963127947</v>
+        <v>3418.24682730444</v>
       </c>
       <c r="R9">
-        <v>43862.47166815153</v>
+        <v>30764.22144573996</v>
       </c>
       <c r="S9">
-        <v>0.4216720045396643</v>
+        <v>0.2911823713045248</v>
       </c>
       <c r="T9">
-        <v>0.4216720045396642</v>
+        <v>0.2911823713045249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H10">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J10">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N10">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P10">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q10">
-        <v>0.05080084521244445</v>
+        <v>0.9462878769747778</v>
       </c>
       <c r="R10">
-        <v>0.457207606912</v>
+        <v>8.516590892772999</v>
       </c>
       <c r="S10">
-        <v>4.395366717041431E-06</v>
+        <v>8.060926020708907E-05</v>
       </c>
       <c r="T10">
-        <v>4.39536671704143E-06</v>
+        <v>8.06092602070891E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H11">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I11">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J11">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N11">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P11">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q11">
-        <v>78.68562596254579</v>
+        <v>82.65640124925767</v>
       </c>
       <c r="R11">
-        <v>708.1706336629121</v>
+        <v>743.9076112433189</v>
       </c>
       <c r="S11">
-        <v>0.006808000536586015</v>
+        <v>0.007041061729950246</v>
       </c>
       <c r="T11">
-        <v>0.006808000536586012</v>
+        <v>0.007041061729950246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H12">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I12">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J12">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N12">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O12">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P12">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q12">
-        <v>14.12885775807645</v>
+        <v>9.788092434688666</v>
       </c>
       <c r="R12">
-        <v>127.159719822688</v>
+        <v>88.09283191219799</v>
       </c>
       <c r="S12">
-        <v>0.001222450352547463</v>
+        <v>0.0008337958344360033</v>
       </c>
       <c r="T12">
-        <v>0.001222450352547463</v>
+        <v>0.0008337958344360034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.292554666666667</v>
+        <v>1.002166333333333</v>
       </c>
       <c r="H13">
-        <v>3.877664</v>
+        <v>3.006499</v>
       </c>
       <c r="I13">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="J13">
-        <v>0.01516009819481108</v>
+        <v>0.01177035159063915</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N13">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P13">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q13">
-        <v>82.35235968989868</v>
+        <v>44.78367866037599</v>
       </c>
       <c r="R13">
-        <v>741.1712372090881</v>
+        <v>403.0531079433839</v>
       </c>
       <c r="S13">
-        <v>0.007125251938960559</v>
+        <v>0.003814884766045809</v>
       </c>
       <c r="T13">
-        <v>0.007125251938960558</v>
+        <v>0.00381488476604581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H14">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I14">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J14">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N14">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P14">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q14">
-        <v>0.2271531158275555</v>
+        <v>2.225127517083889</v>
       </c>
       <c r="R14">
-        <v>2.044378042448</v>
+        <v>20.026147653755</v>
       </c>
       <c r="S14">
-        <v>1.965363451740595E-05</v>
+        <v>0.0001895468465600453</v>
       </c>
       <c r="T14">
-        <v>1.965363451740594E-05</v>
+        <v>0.0001895468465600454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H15">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I15">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J15">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N15">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P15">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q15">
-        <v>351.8383411434943</v>
+        <v>194.3605506929183</v>
       </c>
       <c r="R15">
-        <v>3166.545070291448</v>
+        <v>1749.244956236265</v>
       </c>
       <c r="S15">
-        <v>0.03044159064625867</v>
+        <v>0.01655654752218301</v>
       </c>
       <c r="T15">
-        <v>0.03044159064625866</v>
+        <v>0.01655654752218302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H16">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I16">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J16">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N16">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O16">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P16">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q16">
-        <v>63.17639105038356</v>
+        <v>23.01599158790334</v>
       </c>
       <c r="R16">
-        <v>568.587519453452</v>
+        <v>207.14392429113</v>
       </c>
       <c r="S16">
-        <v>0.005466117844386323</v>
+        <v>0.001960610613299576</v>
       </c>
       <c r="T16">
-        <v>0.00546611784438632</v>
+        <v>0.001960610613299577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.779585333333333</v>
+        <v>2.356521666666667</v>
       </c>
       <c r="H17">
-        <v>17.338756</v>
+        <v>7.069565</v>
       </c>
       <c r="I17">
-        <v>0.06778752453432524</v>
+        <v>0.02767713065691252</v>
       </c>
       <c r="J17">
-        <v>0.06778752453432522</v>
+        <v>0.02767713065691253</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N17">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P17">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q17">
-        <v>368.2339343190613</v>
+        <v>105.30558208356</v>
       </c>
       <c r="R17">
-        <v>3314.105408871552</v>
+        <v>947.7502387520399</v>
       </c>
       <c r="S17">
-        <v>0.03186016240916284</v>
+        <v>0.008970425674869886</v>
       </c>
       <c r="T17">
-        <v>0.03186016240916283</v>
+        <v>0.00897042567486989</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H18">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I18">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J18">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N18">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P18">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q18">
-        <v>0.01091834630444444</v>
+        <v>0.4869111490811112</v>
       </c>
       <c r="R18">
-        <v>0.09826511673999999</v>
+        <v>4.382200341730001</v>
       </c>
       <c r="S18">
-        <v>9.446719980936754E-07</v>
+        <v>4.147738597211067E-05</v>
       </c>
       <c r="T18">
-        <v>9.446719980936752E-07</v>
+        <v>4.147738597211067E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H19">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I19">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J19">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N19">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P19">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q19">
-        <v>16.91146889088778</v>
+        <v>42.53073963057667</v>
       </c>
       <c r="R19">
-        <v>152.20322001799</v>
+        <v>382.77665667519</v>
       </c>
       <c r="S19">
-        <v>0.00146320611770217</v>
+        <v>0.003622968803786641</v>
       </c>
       <c r="T19">
-        <v>0.00146320611770217</v>
+        <v>0.003622968803786641</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H20">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I20">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J20">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N20">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O20">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P20">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q20">
-        <v>3.036637702459445</v>
+        <v>5.036449742886667</v>
       </c>
       <c r="R20">
-        <v>27.329739322135</v>
+        <v>45.32804768598</v>
       </c>
       <c r="S20">
-        <v>0.000262734531941091</v>
+        <v>0.000429028520519765</v>
       </c>
       <c r="T20">
-        <v>0.0002627345319410909</v>
+        <v>0.000429028520519765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2778016666666667</v>
+        <v>0.5156633333333334</v>
       </c>
       <c r="H21">
-        <v>0.833405</v>
+        <v>1.54699</v>
       </c>
       <c r="I21">
-        <v>0.003258276538670325</v>
+        <v>0.006056418514425867</v>
       </c>
       <c r="J21">
-        <v>0.003258276538670324</v>
+        <v>0.006056418514425868</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N21">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P21">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q21">
-        <v>17.69953980730667</v>
+        <v>23.04338137176</v>
       </c>
       <c r="R21">
-        <v>159.29585826576</v>
+        <v>207.39043234584</v>
       </c>
       <c r="S21">
-        <v>0.00153139121702897</v>
+        <v>0.001962943804147351</v>
       </c>
       <c r="T21">
-        <v>0.00153139121702897</v>
+        <v>0.001962943804147352</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H22">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I22">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J22">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03930266666666667</v>
+        <v>0.9442423333333334</v>
       </c>
       <c r="N22">
-        <v>0.117908</v>
+        <v>2.832727</v>
       </c>
       <c r="O22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481535</v>
       </c>
       <c r="P22">
-        <v>0.0002899299635503584</v>
+        <v>0.006848500623481536</v>
       </c>
       <c r="Q22">
-        <v>0.03784389578977778</v>
+        <v>1.732387245331667</v>
       </c>
       <c r="R22">
-        <v>0.3405950621080001</v>
+        <v>15.591485207985</v>
       </c>
       <c r="S22">
-        <v>3.274311663555287E-06</v>
+        <v>0.0001475729084523659</v>
       </c>
       <c r="T22">
-        <v>3.274311663555286E-06</v>
+        <v>0.000147572908452366</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H23">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I23">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J23">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.87605266666667</v>
+        <v>82.477727</v>
       </c>
       <c r="N23">
-        <v>182.628158</v>
+        <v>247.433181</v>
       </c>
       <c r="O23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="P23">
-        <v>0.4490736437918471</v>
+        <v>0.5982031781913751</v>
       </c>
       <c r="Q23">
-        <v>58.61655680387312</v>
+        <v>151.320648560995</v>
       </c>
       <c r="R23">
-        <v>527.5490112348581</v>
+        <v>1361.885837048955</v>
       </c>
       <c r="S23">
-        <v>0.00507159402104198</v>
+        <v>0.01289020585739137</v>
       </c>
       <c r="T23">
-        <v>0.005071594021041979</v>
+        <v>0.01289020585739137</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H24">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I24">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J24">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.93095566666667</v>
+        <v>9.766934000000001</v>
       </c>
       <c r="N24">
-        <v>32.792867</v>
+        <v>29.300802</v>
       </c>
       <c r="O24">
-        <v>0.08063604449250054</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="P24">
-        <v>0.08063604449250053</v>
+        <v>0.07083865150630789</v>
       </c>
       <c r="Q24">
-        <v>10.52523867249078</v>
+        <v>17.91924730579</v>
       </c>
       <c r="R24">
-        <v>94.72714805241701</v>
+        <v>161.27322575211</v>
       </c>
       <c r="S24">
-        <v>0.0009106597253750152</v>
+        <v>0.001526445919824572</v>
       </c>
       <c r="T24">
-        <v>0.0009106597253750148</v>
+        <v>0.001526445919824572</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9628836666666668</v>
+        <v>1.834685</v>
       </c>
       <c r="H25">
-        <v>2.888651</v>
+        <v>5.504055</v>
       </c>
       <c r="I25">
-        <v>0.01129345730072003</v>
+        <v>0.02154820690917088</v>
       </c>
       <c r="J25">
-        <v>0.01129345730072002</v>
+        <v>0.02154820690917089</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.712864</v>
+        <v>44.68687199999999</v>
       </c>
       <c r="N25">
-        <v>191.138592</v>
+        <v>134.060616</v>
       </c>
       <c r="O25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788354</v>
       </c>
       <c r="P25">
-        <v>0.470000381752102</v>
+        <v>0.3241096696788355</v>
       </c>
       <c r="Q25">
-        <v>61.34807610215468</v>
+        <v>81.98633375531999</v>
       </c>
       <c r="R25">
-        <v>552.1326849193921</v>
+        <v>737.8770037978799</v>
       </c>
       <c r="S25">
-        <v>0.005307929242639476</v>
+        <v>0.006983982223502575</v>
       </c>
       <c r="T25">
-        <v>0.005307929242639474</v>
+        <v>0.006983982223502577</v>
       </c>
     </row>
   </sheetData>
